--- a/SFE - InternalEnergy/LUKE_T40_P300_org.xlsx
+++ b/SFE - InternalEnergy/LUKE_T40_P300_org.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LocalUserData\User-data\sliczno1\GitHub\Parameter_fitting_casadi\SFE - EmptySpace\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LocalUserData\User-data\sliczno1\GitHub\Parameter_fitting_casadi\SFE - InternalEnergy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B63549C-AF7C-456A-9637-2AE1A1BCFC24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5124E34D-2BC1-4C3E-86CE-D8FF2C129C65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{07F37EDF-B098-437F-87E8-871DFCA4D785}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="56040" windowHeight="30495" xr2:uid="{07F37EDF-B098-437F-87E8-871DFCA4D785}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1491,7 +1491,7 @@
   <dimension ref="C5:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
